--- a/EstadoRequeqLuchito_Working.xlsx
+++ b/EstadoRequeqLuchito_Working.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrabajosPersonales\ExpoBoda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrabajosPersonales\ExpoBoda\Docs\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListadoRequerimientosExpoBoda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="436">
   <si>
     <t>Proceso</t>
   </si>
@@ -1314,6 +1314,39 @@
   </si>
   <si>
     <t>tinyint</t>
+  </si>
+  <si>
+    <t>usuariocliente</t>
+  </si>
+  <si>
+    <t>usuarioempresa</t>
+  </si>
+  <si>
+    <t>intIdUbigeo</t>
+  </si>
+  <si>
+    <t>vchRazonSocial</t>
+  </si>
+  <si>
+    <t>vchRuc</t>
+  </si>
+  <si>
+    <t>vchNombreComercial</t>
+  </si>
+  <si>
+    <t>intIdUsuempresa</t>
+  </si>
+  <si>
+    <t>intIdUsucliente</t>
+  </si>
+  <si>
+    <t>dtmFechaCreacion</t>
+  </si>
+  <si>
+    <t>vchCorreoContacto</t>
+  </si>
+  <si>
+    <t>vchContacto</t>
   </si>
 </sst>
 </file>
@@ -1619,6 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1637,10 +1671,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1652,10 +1686,9 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2726,10 +2759,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -2743,8 +2776,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="55"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -2756,8 +2789,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -2769,8 +2802,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="55"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -2782,8 +2815,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="55"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -2795,8 +2828,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -2808,8 +2841,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -2821,8 +2854,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -2834,8 +2867,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="55"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -2847,8 +2880,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="55"/>
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -2860,8 +2893,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -2875,8 +2908,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="55"/>
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -2888,8 +2921,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="55"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -2904,8 +2937,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -2917,8 +2950,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="55"/>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -2930,8 +2963,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -2943,8 +2976,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="55"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -2956,8 +2989,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="55"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -2969,8 +3002,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" t="s">
         <v>24</v>
       </c>
@@ -2982,8 +3015,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -2995,8 +3028,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
@@ -3010,8 +3043,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -3023,8 +3056,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" t="s">
         <v>395</v>
       </c>
@@ -3036,8 +3069,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="55"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -3049,7 +3082,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -3064,8 +3097,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="s">
@@ -3079,8 +3112,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="54"/>
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -3092,8 +3125,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="54"/>
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -3105,8 +3138,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="54"/>
       <c r="C30" t="s">
         <v>35</v>
       </c>
@@ -3118,8 +3151,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="54"/>
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -3131,8 +3164,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="54"/>
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -3144,8 +3177,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="55" t="s">
         <v>48</v>
       </c>
       <c r="C33" t="s">
@@ -3159,8 +3192,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="55"/>
       <c r="C34" t="s">
         <v>39</v>
       </c>
@@ -3172,8 +3205,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="54" t="s">
         <v>51</v>
       </c>
       <c r="C35" t="s">
@@ -3187,8 +3220,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -3200,8 +3233,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -3213,8 +3246,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3259,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="55"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -3239,8 +3272,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="55"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -3252,8 +3285,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="55"/>
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -3265,7 +3298,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3280,8 +3313,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="54" t="s">
         <v>56</v>
       </c>
       <c r="C43" t="s">
@@ -3295,8 +3328,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="55"/>
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -3308,8 +3341,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="55"/>
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -3321,8 +3354,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="55"/>
       <c r="C46" t="s">
         <v>55</v>
       </c>
@@ -3334,8 +3367,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="55"/>
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -3347,10 +3380,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
@@ -3364,8 +3397,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="55"/>
       <c r="C49" t="s">
         <v>60</v>
       </c>
@@ -3377,8 +3410,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="55"/>
       <c r="C50" t="s">
         <v>61</v>
       </c>
@@ -3390,8 +3423,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="55"/>
       <c r="C51" t="s">
         <v>62</v>
       </c>
@@ -3403,8 +3436,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="55"/>
       <c r="C52" t="s">
         <v>63</v>
       </c>
@@ -3416,8 +3449,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="55"/>
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -3429,8 +3462,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="55"/>
       <c r="C54" t="s">
         <v>65</v>
       </c>
@@ -3442,8 +3475,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="55"/>
       <c r="C55" t="s">
         <v>66</v>
       </c>
@@ -3455,8 +3488,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="55"/>
       <c r="C56" t="s">
         <v>67</v>
       </c>
@@ -3468,8 +3501,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="55"/>
       <c r="C57" t="s">
         <v>68</v>
       </c>
@@ -3481,8 +3514,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="55"/>
       <c r="C58" t="s">
         <v>69</v>
       </c>
@@ -3494,8 +3527,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="55"/>
       <c r="C59" t="s">
         <v>70</v>
       </c>
@@ -3507,8 +3540,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="54"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="55"/>
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -3520,8 +3553,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="55"/>
       <c r="C61" t="s">
         <v>72</v>
       </c>
@@ -3533,8 +3566,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="54"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="55"/>
       <c r="C62" t="s">
         <v>73</v>
       </c>
@@ -3546,7 +3579,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -3561,8 +3594,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="54" t="s">
+      <c r="A64" s="57"/>
+      <c r="B64" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C64" t="s">
@@ -3579,8 +3612,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="55"/>
       <c r="C65" t="s">
         <v>78</v>
       </c>
@@ -3592,8 +3625,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="54"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="55"/>
       <c r="C66" t="s">
         <v>79</v>
       </c>
@@ -3605,8 +3638,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="55"/>
       <c r="C67" t="s">
         <v>80</v>
       </c>
@@ -3618,10 +3651,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
@@ -3635,8 +3668,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="54"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="55"/>
       <c r="C69" t="s">
         <v>82</v>
       </c>
@@ -3648,8 +3681,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="54"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="55"/>
       <c r="C70" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3697,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="55"/>
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3710,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="55"/>
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -3693,8 +3726,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="54"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="55"/>
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -3706,8 +3739,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="54"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="55"/>
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -3719,8 +3752,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="54"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="55"/>
       <c r="C75" t="s">
         <v>88</v>
       </c>
@@ -3732,8 +3765,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="54"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="55"/>
       <c r="C76" t="s">
         <v>89</v>
       </c>
@@ -3745,8 +3778,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="54"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="55"/>
       <c r="C77" t="s">
         <v>90</v>
       </c>
@@ -3758,8 +3791,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="54"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="55"/>
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -3774,8 +3807,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="55"/>
       <c r="C79" t="s">
         <v>92</v>
       </c>
@@ -3787,8 +3820,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="58"/>
+      <c r="B80" s="54" t="s">
         <v>321</v>
       </c>
       <c r="C80" t="s">
@@ -3802,8 +3835,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="54"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="55"/>
       <c r="C81" t="s">
         <v>79</v>
       </c>
@@ -3815,8 +3848,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="55"/>
       <c r="C82" t="s">
         <v>93</v>
       </c>
@@ -3828,8 +3861,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="55"/>
       <c r="C83" t="s">
         <v>94</v>
       </c>
@@ -3844,8 +3877,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="55"/>
       <c r="C84" t="s">
         <v>95</v>
       </c>
@@ -3857,8 +3890,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="54" t="s">
         <v>122</v>
       </c>
       <c r="C85" t="s">
@@ -3875,8 +3908,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="55"/>
       <c r="C86" t="s">
         <v>97</v>
       </c>
@@ -3891,8 +3924,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="55"/>
       <c r="C87" t="s">
         <v>98</v>
       </c>
@@ -3904,8 +3937,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="54"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="55"/>
       <c r="C88" t="s">
         <v>99</v>
       </c>
@@ -3917,7 +3950,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" t="s">
         <v>100</v>
       </c>
@@ -3929,7 +3962,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" t="s">
         <v>26</v>
       </c>
@@ -3944,8 +3977,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C91" t="s">
@@ -3959,8 +3992,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="55"/>
       <c r="C92" t="s">
         <v>102</v>
       </c>
@@ -3972,8 +4005,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="55"/>
       <c r="C93" t="s">
         <v>103</v>
       </c>
@@ -3985,8 +4018,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="54"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="55"/>
       <c r="C94" t="s">
         <v>104</v>
       </c>
@@ -3998,8 +4031,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C95" t="s">
@@ -4011,7 +4044,7 @@
       <c r="E95" t="s">
         <v>138</v>
       </c>
-      <c r="F95" s="53" t="s">
+      <c r="F95" s="54" t="s">
         <v>141</v>
       </c>
       <c r="G95">
@@ -4019,8 +4052,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="55"/>
       <c r="C96" t="s">
         <v>107</v>
       </c>
@@ -4030,14 +4063,14 @@
       <c r="E96" t="s">
         <v>138</v>
       </c>
-      <c r="F96" s="54"/>
+      <c r="F96" s="55"/>
       <c r="G96">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="55"/>
       <c r="C97" t="s">
         <v>108</v>
       </c>
@@ -4047,42 +4080,42 @@
       <c r="E97" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="54"/>
+      <c r="F97" s="55"/>
       <c r="G97">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="54"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="55"/>
       <c r="C98" t="s">
         <v>109</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="F98" s="54"/>
+      <c r="F98" s="55"/>
       <c r="G98">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="54"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="55"/>
       <c r="C99" t="s">
         <v>110</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="F99" s="54"/>
+      <c r="F99" s="55"/>
       <c r="G99">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
-      <c r="B100" s="53" t="s">
+      <c r="A100" s="58"/>
+      <c r="B100" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C100" t="s">
@@ -4096,8 +4129,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
-      <c r="B101" s="53"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="54"/>
       <c r="C101" t="s">
         <v>113</v>
       </c>
@@ -4109,8 +4142,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="53"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="54"/>
       <c r="C102" t="s">
         <v>114</v>
       </c>
@@ -4122,8 +4155,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="53"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="54"/>
       <c r="C103" t="s">
         <v>115</v>
       </c>
@@ -4135,7 +4168,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="1" t="s">
         <v>116</v>
       </c>
@@ -4150,8 +4183,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C105" t="s">
@@ -4168,8 +4201,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="54"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="55"/>
       <c r="C106" t="s">
         <v>119</v>
       </c>
@@ -4181,8 +4214,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="55"/>
       <c r="C107" t="s">
         <v>120</v>
       </c>
@@ -4194,8 +4227,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
-      <c r="B108" s="54"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="55"/>
       <c r="C108" t="s">
         <v>121</v>
       </c>
@@ -4210,7 +4243,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="59" t="s">
         <v>124</v>
       </c>
       <c r="B109" t="s">
@@ -4227,7 +4260,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
+      <c r="A110" s="59"/>
       <c r="B110" t="s">
         <v>126</v>
       </c>
@@ -4242,7 +4275,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
+      <c r="A111" s="59"/>
       <c r="B111" t="s">
         <v>127</v>
       </c>
@@ -4257,7 +4290,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="A112" s="59"/>
       <c r="B112" t="s">
         <v>128</v>
       </c>
@@ -4272,7 +4305,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="59"/>
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -4287,7 +4320,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
+      <c r="A114" s="59"/>
       <c r="B114" t="s">
         <v>131</v>
       </c>
@@ -4302,7 +4335,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="59"/>
       <c r="B115" t="s">
         <v>76</v>
       </c>
@@ -4317,7 +4350,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="59"/>
       <c r="B116" t="s">
         <v>132</v>
       </c>
@@ -4452,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S42"/>
+  <dimension ref="B1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,10 +4542,10 @@
       <c r="C4" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="53" t="s">
         <v>325</v>
       </c>
       <c r="H4" t="s">
@@ -4551,10 +4584,10 @@
       <c r="D5" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="53" t="s">
         <v>333</v>
       </c>
       <c r="H5" t="s">
@@ -4590,10 +4623,10 @@
       <c r="C6" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="53" t="s">
         <v>345</v>
       </c>
       <c r="H6" s="48" t="s">
@@ -4623,10 +4656,10 @@
       <c r="C7" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="53" t="s">
         <v>333</v>
       </c>
       <c r="H7" t="s">
@@ -4662,10 +4695,10 @@
       <c r="C8" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="53" t="s">
         <v>419</v>
       </c>
       <c r="H8" t="s">
@@ -4999,6 +5032,10 @@
       <c r="B22" t="s">
         <v>338</v>
       </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="H22" s="21" t="s">
         <v>332</v>
       </c>
@@ -5011,7 +5048,7 @@
         <v>414</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F23" t="s">
         <v>325</v>
@@ -5028,10 +5065,10 @@
         <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>336</v>
@@ -5048,7 +5085,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
         <v>345</v>
@@ -5065,7 +5102,7 @@
         <v>422</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F26" t="s">
         <v>345</v>
@@ -5073,121 +5110,310 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F27" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>357</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>345</v>
+        <v>355</v>
+      </c>
+      <c r="F29" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30" t="s">
-        <v>333</v>
+        <v>427</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" t="s">
-        <v>330</v>
+        <v>357</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>381</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="21" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F43" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>428</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>429</v>
+      </c>
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>435</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>434</v>
+      </c>
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>433</v>
+      </c>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>427</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>353</v>
+      </c>
+      <c r="F60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>381</v>
+      </c>
+      <c r="F61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5283,11 +5509,11 @@
       <c r="G8" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="62"/>
       <c r="J8" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="62"/>
       <c r="M8" s="26" t="s">
         <v>248</v>
       </c>
@@ -5590,10 +5816,10 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="65"/>
       <c r="H21" s="29"/>
       <c r="J21" s="28" t="s">
         <v>222</v>
@@ -5653,10 +5879,10 @@
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="29"/>
-      <c r="P24" s="62" t="s">
+      <c r="P24" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="Q24" s="63"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
@@ -5668,12 +5894,12 @@
       <c r="C25" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="41"/>
       <c r="G25" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="62"/>
       <c r="J25" s="28"/>
       <c r="K25" s="29"/>
       <c r="M25" s="30"/>
@@ -5760,7 +5986,7 @@
       <c r="J30" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="62"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="45"/>
     </row>
@@ -5818,7 +6044,7 @@
       <c r="E35" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="62"/>
       <c r="J35" s="28" t="s">
         <v>282</v>
       </c>
@@ -5835,10 +6061,10 @@
       <c r="K36" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="N36" s="62" t="s">
+      <c r="N36" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="O36" s="63"/>
+      <c r="O36" s="64"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="28" t="s">
@@ -5896,11 +6122,11 @@
       <c r="H41" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="62"/>
       <c r="K41" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="L41" s="61"/>
+      <c r="L41" s="62"/>
       <c r="N41" s="44"/>
       <c r="O41" s="45"/>
     </row>
@@ -5955,10 +6181,10 @@
       <c r="I46" s="43"/>
       <c r="K46" s="28"/>
       <c r="L46" s="29"/>
-      <c r="N46" s="62" t="s">
+      <c r="N46" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="O46" s="63"/>
+      <c r="O46" s="64"/>
     </row>
     <row r="47" spans="5:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="28"/>
@@ -6040,27 +6266,27 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N56" s="62" t="s">
+      <c r="N56" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="O56" s="63"/>
-      <c r="Q56" s="62" t="s">
+      <c r="O56" s="64"/>
+      <c r="Q56" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="R56" s="63"/>
+      <c r="R56" s="64"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="41"/>
       <c r="G57" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="H57" s="64"/>
+      <c r="H57" s="61"/>
       <c r="I57" s="27"/>
       <c r="N57" s="44" t="s">
         <v>226</v>
@@ -6229,12 +6455,12 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="N56:O56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N56:O56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
